--- a/Inventor/Pesos EyasSat.xlsx
+++ b/Inventor/Pesos EyasSat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Documents\GitHub\TDG_ReactionWheelsUnloading\Inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10821539-51EC-48C8-8093-0B0A436BAA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D0C94-79E4-49AC-BDD4-7318F3E81612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8D42D20-FFF3-457A-BB76-F454978782DD}"/>
+    <workbookView xWindow="-25320" yWindow="3660" windowWidth="25440" windowHeight="15390" xr2:uid="{D8D42D20-FFF3-457A-BB76-F454978782DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t xml:space="preserve">Masa total </t>
   </si>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF09FBB2-BE00-46A1-9CD3-D76AF6EB1D1A}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -754,7 +754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -765,7 +765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -776,7 +776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -786,8 +786,17 @@
       <c r="C36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>18.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f>+(E36-10.7)/2</f>
+        <v>3.9600000000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -802,37 +811,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB734E8-D8DB-47A2-B5CA-95AC9C13379F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2133</v>
       </c>
       <c r="D1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>1796</v>
+      </c>
+      <c r="I1">
+        <v>504</v>
+      </c>
+      <c r="K1">
+        <v>115</v>
+      </c>
+      <c r="M1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
       <c r="D2">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>78</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3">
         <f>+SQRT(D1^2+D2^2)</f>
         <v>91.443971917234649</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>+SQRT(A1^2+A2^2)</f>
         <v>2133.0600085323431</v>
@@ -840,8 +873,33 @@
       <c r="B4">
         <v>20.76</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>+SQRT(F1^2+F2^2)</f>
+        <v>1797.6929659983653</v>
+      </c>
+      <c r="G4">
+        <v>16.82</v>
+      </c>
+      <c r="I4">
+        <f>+SQRT(I1^2+I2^2)</f>
+        <v>504.47993022517755</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="J4:M4" si="0">+SQRT(K1^2+K2^2)</f>
+        <v>115.21284650593439</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1100.9613980517211</v>
+      </c>
+      <c r="O4">
+        <v>102</v>
+      </c>
+      <c r="Q4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>+B4/A4</f>
         <v>9.7324969372446155E-3</v>
@@ -849,11 +907,40 @@
       <c r="B6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>+G4/F4</f>
+        <v>9.3564364539073883E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>+D3*A6</f>
         <v>0.88997817661396883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>+F6*I4</f>
+        <v>4.7201344094235074</v>
+      </c>
+      <c r="K8">
+        <f>+K4*F6</f>
+        <v>1.0779816770065611</v>
+      </c>
+      <c r="M8">
+        <f>+M4*F6</f>
+        <v>10.301075359075966</v>
+      </c>
+      <c r="O8">
+        <f>+O4*F6</f>
+        <v>0.95435651829855361</v>
+      </c>
+      <c r="Q8">
+        <f>+Q4*F6</f>
+        <v>1.9367823459588294</v>
       </c>
     </row>
   </sheetData>

--- a/Inventor/Pesos EyasSat.xlsx
+++ b/Inventor/Pesos EyasSat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Documents\GitHub\TDG_ReactionWheelsUnloading\Inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D0C94-79E4-49AC-BDD4-7318F3E81612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54910D4F-6FB5-4550-9148-8300D0AF8978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="3660" windowWidth="25440" windowHeight="15390" xr2:uid="{D8D42D20-FFF3-457A-BB76-F454978782DD}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF09FBB2-BE00-46A1-9CD3-D76AF6EB1D1A}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
         <v>504.47993022517755</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="J4:M4" si="0">+SQRT(K1^2+K2^2)</f>
+        <f t="shared" ref="K4:M4" si="0">+SQRT(K1^2+K2^2)</f>
         <v>115.21284650593439</v>
       </c>
       <c r="M4">

--- a/Inventor/Pesos EyasSat.xlsx
+++ b/Inventor/Pesos EyasSat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Documents\GitHub\TDG_ReactionWheelsUnloading\Inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54910D4F-6FB5-4550-9148-8300D0AF8978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7FA85E-6DF0-41B3-BDC5-9C50F4D22ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="3660" windowWidth="25440" windowHeight="15390" xr2:uid="{D8D42D20-FFF3-457A-BB76-F454978782DD}"/>
+    <workbookView xWindow="-25320" yWindow="3660" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{D8D42D20-FFF3-457A-BB76-F454978782DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t xml:space="preserve">Masa total </t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>cm/px</t>
+  </si>
+  <si>
+    <t>px</t>
   </si>
 </sst>
 </file>
@@ -507,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF09FBB2-BE00-46A1-9CD3-D76AF6EB1D1A}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB734E8-D8DB-47A2-B5CA-95AC9C13379F}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,6 +946,35 @@
         <v>1.9367823459588294</v>
       </c>
     </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <f>152*A17</f>
+        <v>1.91496062992126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>+A15/A14</f>
+        <v>1.2598425196850395E-2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inventor/Pesos EyasSat.xlsx
+++ b/Inventor/Pesos EyasSat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Documents\GitHub\TDG_ReactionWheelsUnloading\Inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7FA85E-6DF0-41B3-BDC5-9C50F4D22ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC954D-2995-41CF-8B6A-3B81DA8F919F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="3660" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{D8D42D20-FFF3-457A-BB76-F454978782DD}"/>
+    <workbookView xWindow="-25320" yWindow="3660" windowWidth="25440" windowHeight="15390" xr2:uid="{D8D42D20-FFF3-457A-BB76-F454978782DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF09FBB2-BE00-46A1-9CD3-D76AF6EB1D1A}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB734E8-D8DB-47A2-B5CA-95AC9C13379F}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inventor/Pesos EyasSat.xlsx
+++ b/Inventor/Pesos EyasSat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Documents\GitHub\TDG_ReactionWheelsUnloading\Inventor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\TDG_Sebastian\TDG_ReactionWheelsUnloading\Inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC954D-2995-41CF-8B6A-3B81DA8F919F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6F6D33-7108-4A8D-9D5A-58E2F45A61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="3660" windowWidth="25440" windowHeight="15390" xr2:uid="{D8D42D20-FFF3-457A-BB76-F454978782DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D8D42D20-FFF3-457A-BB76-F454978782DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t xml:space="preserve">Masa total </t>
   </si>
@@ -157,6 +146,21 @@
   </si>
   <si>
     <t>px</t>
+  </si>
+  <si>
+    <t>diametro embobinado</t>
+  </si>
+  <si>
+    <t># capas</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t># vueltas / capa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># vueltas </t>
   </si>
 </sst>
 </file>
@@ -508,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF09FBB2-BE00-46A1-9CD3-D76AF6EB1D1A}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,12 +803,53 @@
         <v>3.9600000000000009</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>0.03</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <f>+(B33-B34)/(B38*2)</f>
+        <v>11.333333333333332</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f>+B35/B38</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f>+B45*B44</f>
+        <v>2991.9999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Inventor/Pesos EyasSat.xlsx
+++ b/Inventor/Pesos EyasSat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\TDG_Sebastian\TDG_ReactionWheelsUnloading\Inventor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Documents\GitHub\TDG_ReactionWheelsUnloading\Inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6F6D33-7108-4A8D-9D5A-58E2F45A61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0E5CA3-677B-4760-BB77-0B0327991623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D8D42D20-FFF3-457A-BB76-F454978782DD}"/>
+    <workbookView xWindow="-25320" yWindow="3660" windowWidth="25440" windowHeight="15390" xr2:uid="{D8D42D20-FFF3-457A-BB76-F454978782DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -515,7 +526,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
